--- a/datenRF4/AFL/i=73,96 Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L2_S4_i73,96_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=73,96 Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L2_S4_i73,96_Fremdlüfter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
   <si>
     <t>Sequenz</t>
   </si>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -865,11 +865,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -966,9 +1016,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -976,9 +1023,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1011,7 +1055,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,7 +1095,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1358,7 +1438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1369,10 +1449,10 @@
   <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="M94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1391,47 +1471,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="107" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="98" t="s">
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="100" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -1456,7 +1536,7 @@
       <c r="C3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="82" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -1465,7 +1545,7 @@
       <c r="F3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="93" t="s">
         <v>119</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -1557,7 +1637,7 @@
       <c r="E5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="84" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="15"/>
@@ -1606,13 +1686,13 @@
       <c r="D6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="49"/>
@@ -1631,20 +1711,22 @@
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="111">
+        <v>3</v>
+      </c>
       <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="65">
         <v>23355</v>
       </c>
       <c r="H7" s="40"/>
@@ -1666,9 +1748,9 @@
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="49"/>
@@ -1728,7 +1810,7 @@
       <c r="E10" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G10" s="15"/>
@@ -1780,7 +1862,7 @@
       <c r="E11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G11" s="5"/>
@@ -1811,13 +1893,13 @@
       <c r="D12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -1833,23 +1915,25 @@
       <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="69">
-        <v>1</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71">
-        <v>1</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="72" t="s">
+      <c r="A13" s="68">
+        <v>1</v>
+      </c>
+      <c r="B13" s="109">
+        <v>3</v>
+      </c>
+      <c r="C13" s="69">
+        <v>1</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="71">
         <v>23355</v>
       </c>
       <c r="H13" s="40"/>
@@ -1870,7 +1954,9 @@
       <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="110">
+        <v>3</v>
+      </c>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -1880,7 +1966,7 @@
       <c r="E14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="89" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="14">
@@ -2145,7 +2231,7 @@
       <c r="E24" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G24" s="15"/>
@@ -2197,7 +2283,7 @@
       <c r="E25" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="5"/>
@@ -2228,13 +2314,13 @@
       <c r="D26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="49"/>
@@ -2250,23 +2336,25 @@
       <c r="T26" s="41"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="69">
-        <v>1</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71">
-        <v>1</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="72" t="s">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="109">
+        <v>3</v>
+      </c>
+      <c r="C27" s="69">
+        <v>1</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="71">
         <v>23355</v>
       </c>
       <c r="H27" s="40"/>
@@ -2287,7 +2375,9 @@
       <c r="A28" s="10">
         <v>2</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="110">
+        <v>3</v>
+      </c>
       <c r="C28" s="12">
         <v>2</v>
       </c>
@@ -2297,7 +2387,7 @@
       <c r="E28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="91" t="s">
+      <c r="F28" s="89" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="14">
@@ -2402,8 +2492,8 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="40">
         <v>7</v>
       </c>
@@ -2471,7 +2561,7 @@
       <c r="E34" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G34" s="15"/>
@@ -2523,7 +2613,7 @@
       <c r="E35" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="89" t="s">
+      <c r="F35" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="5"/>
@@ -2541,26 +2631,26 @@
       <c r="S35" s="40"/>
       <c r="T35" s="41"/>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="2">
+    <row r="36" spans="1:20" ht="15" thickBot="1">
+      <c r="A36" s="112">
         <v>6</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="113">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="21" t="s">
+      <c r="C36" s="114">
+        <v>1</v>
+      </c>
+      <c r="D36" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="89" t="s">
+      <c r="F36" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="117"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="49"/>
@@ -2576,23 +2666,25 @@
       <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="69">
-        <v>1</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71">
-        <v>1</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="72" t="s">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="122">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="90" t="s">
+      <c r="F37" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="97">
+      <c r="G37" s="120">
         <v>23355</v>
       </c>
       <c r="H37" s="40"/>
@@ -2610,14 +2702,22 @@
       <c r="T37" s="41"/>
     </row>
     <row r="38" spans="1:20" ht="15" thickBot="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="111" t="s">
+      <c r="A38" s="31">
+        <v>2</v>
+      </c>
+      <c r="B38" s="121">
+        <v>3</v>
+      </c>
+      <c r="C38" s="32">
+        <v>6</v>
+      </c>
+      <c r="D38" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="94" t="s">
+      <c r="F38" s="92" t="s">
         <v>87</v>
       </c>
       <c r="G38" s="36">
@@ -2674,7 +2774,7 @@
       <c r="E40" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G40" s="15"/>
@@ -2722,7 +2822,7 @@
       <c r="E41" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="89" t="s">
+      <c r="F41" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="5"/>
@@ -2753,13 +2853,13 @@
       <c r="D42" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="68"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
       <c r="J42" s="49"/>
@@ -2775,23 +2875,25 @@
       <c r="T42" s="41"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="69">
-        <v>1</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="71">
-        <v>1</v>
-      </c>
-      <c r="D43" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="72" t="s">
+      <c r="A43" s="68">
+        <v>1</v>
+      </c>
+      <c r="B43" s="109">
+        <v>3</v>
+      </c>
+      <c r="C43" s="69">
+        <v>1</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="F43" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="71">
         <v>23355</v>
       </c>
       <c r="H43" s="40"/>
@@ -2809,14 +2911,22 @@
       <c r="T43" s="41"/>
     </row>
     <row r="44" spans="1:20" ht="15" thickBot="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="111" t="s">
+      <c r="A44" s="31">
+        <v>2</v>
+      </c>
+      <c r="B44" s="121">
+        <v>3</v>
+      </c>
+      <c r="C44" s="32">
+        <v>6</v>
+      </c>
+      <c r="D44" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="94" t="s">
+      <c r="F44" s="92" t="s">
         <v>87</v>
       </c>
       <c r="G44" s="36">
@@ -2931,7 +3041,7 @@
       <c r="E48" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G48" s="15"/>
@@ -2985,7 +3095,7 @@
       <c r="E49" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="89" t="s">
+      <c r="F49" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="5"/>
@@ -3016,13 +3126,13 @@
       <c r="D50" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="87" t="s">
+      <c r="F50" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="68"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="49"/>
@@ -3038,23 +3148,25 @@
       <c r="T50" s="41"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="69">
-        <v>1</v>
-      </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71">
-        <v>1</v>
-      </c>
-      <c r="D51" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="72" t="s">
+      <c r="A51" s="68">
+        <v>1</v>
+      </c>
+      <c r="B51" s="109">
+        <v>3</v>
+      </c>
+      <c r="C51" s="69">
+        <v>1</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="90" t="s">
+      <c r="F51" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="73">
+      <c r="G51" s="71">
         <v>23355</v>
       </c>
       <c r="H51" s="40"/>
@@ -3072,14 +3184,22 @@
       <c r="T51" s="41"/>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="111" t="s">
+      <c r="A52" s="31">
+        <v>2</v>
+      </c>
+      <c r="B52" s="121">
+        <v>3</v>
+      </c>
+      <c r="C52" s="32">
+        <v>6</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="94" t="s">
+      <c r="F52" s="92" t="s">
         <v>87</v>
       </c>
       <c r="G52" s="36">
@@ -3241,7 +3361,7 @@
       <c r="E59" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="86" t="s">
+      <c r="F59" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G59" s="15"/>
@@ -3293,7 +3413,7 @@
       <c r="E60" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="89" t="s">
+      <c r="F60" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G60" s="5"/>
@@ -3327,7 +3447,7 @@
       <c r="E61" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F61" s="89" t="s">
+      <c r="F61" s="87" t="s">
         <v>94</v>
       </c>
       <c r="G61" s="5"/>
@@ -3346,17 +3466,25 @@
       <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="31"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="A62" s="31">
+        <v>7</v>
+      </c>
+      <c r="B62" s="124">
+        <v>2</v>
+      </c>
+      <c r="C62" s="32">
+        <v>1</v>
+      </c>
+      <c r="D62" s="95" t="s">
+        <v>71</v>
+      </c>
       <c r="E62" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="68"/>
+      <c r="G62" s="67"/>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
       <c r="J62" s="49"/>
@@ -3372,17 +3500,25 @@
       <c r="T62" s="41"/>
     </row>
     <row r="63" spans="1:20" ht="15" thickBot="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="76" t="s">
+      <c r="A63" s="72">
+        <v>1</v>
+      </c>
+      <c r="B63" s="73">
+        <v>3</v>
+      </c>
+      <c r="C63" s="73">
+        <v>1</v>
+      </c>
+      <c r="D63" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="92" t="s">
+      <c r="F63" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="75">
         <v>21131</v>
       </c>
       <c r="H63" s="40"/>
@@ -3465,7 +3601,7 @@
       <c r="E66" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="86" t="s">
+      <c r="F66" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G66" s="15"/>
@@ -3517,7 +3653,7 @@
       <c r="E67" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="89" t="s">
+      <c r="F67" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G67" s="5"/>
@@ -3551,7 +3687,7 @@
       <c r="E68" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="89" t="s">
+      <c r="F68" s="87" t="s">
         <v>94</v>
       </c>
       <c r="G68" s="5"/>
@@ -3570,17 +3706,25 @@
       <c r="T68" s="41"/>
     </row>
     <row r="69" spans="1:20" ht="15" thickBot="1">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
+      <c r="A69" s="31">
+        <v>7</v>
+      </c>
+      <c r="B69" s="124">
+        <v>2</v>
+      </c>
+      <c r="C69" s="32">
+        <v>1</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>71</v>
+      </c>
       <c r="E69" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F69" s="87" t="s">
+      <c r="F69" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="68"/>
+      <c r="G69" s="67"/>
       <c r="H69" s="40"/>
       <c r="I69" s="40"/>
       <c r="J69" s="49"/>
@@ -3596,17 +3740,25 @@
       <c r="T69" s="41"/>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" s="78"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="80" t="s">
+      <c r="A70" s="76">
+        <v>1</v>
+      </c>
+      <c r="B70" s="77">
+        <v>3</v>
+      </c>
+      <c r="C70" s="77">
+        <v>1</v>
+      </c>
+      <c r="D70" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="F70" s="93" t="s">
+      <c r="F70" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="81">
+      <c r="G70" s="79">
         <v>21131</v>
       </c>
       <c r="H70" s="40"/>
@@ -3624,14 +3776,22 @@
       <c r="T70" s="41"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="A71" s="31">
+        <v>2</v>
+      </c>
+      <c r="B71" s="32">
+        <v>3</v>
+      </c>
+      <c r="C71" s="32">
+        <v>4</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>71</v>
+      </c>
       <c r="E71" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="94" t="s">
+      <c r="F71" s="92" t="s">
         <v>100</v>
       </c>
       <c r="G71" s="36">
@@ -3754,7 +3914,7 @@
       <c r="E75" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="86" t="s">
+      <c r="F75" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G75" s="15"/>
@@ -3806,7 +3966,7 @@
       <c r="E76" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="89" t="s">
+      <c r="F76" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G76" s="5"/>
@@ -3840,7 +4000,7 @@
       <c r="E77" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F77" s="89" t="s">
+      <c r="F77" s="87" t="s">
         <v>94</v>
       </c>
       <c r="G77" s="5"/>
@@ -3859,17 +4019,25 @@
       <c r="T77" s="41"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="A78" s="31">
+        <v>7</v>
+      </c>
+      <c r="B78" s="124">
+        <v>2</v>
+      </c>
+      <c r="C78" s="32">
+        <v>1</v>
+      </c>
+      <c r="D78" s="95" t="s">
+        <v>71</v>
+      </c>
       <c r="E78" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F78" s="87" t="s">
+      <c r="F78" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="68"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="40"/>
       <c r="I78" s="40"/>
       <c r="J78" s="49"/>
@@ -3885,17 +4053,25 @@
       <c r="T78" s="41"/>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="78"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="80" t="s">
+      <c r="A79" s="76">
+        <v>1</v>
+      </c>
+      <c r="B79" s="77">
+        <v>3</v>
+      </c>
+      <c r="C79" s="77">
+        <v>1</v>
+      </c>
+      <c r="D79" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="93" t="s">
+      <c r="F79" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="G79" s="81">
+      <c r="G79" s="79">
         <v>21131</v>
       </c>
       <c r="H79" s="40"/>
@@ -3913,14 +4089,22 @@
       <c r="T79" s="41"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1">
-      <c r="A80" s="31"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="A80" s="31">
+        <v>2</v>
+      </c>
+      <c r="B80" s="32">
+        <v>3</v>
+      </c>
+      <c r="C80" s="32">
+        <v>4</v>
+      </c>
+      <c r="D80" s="95" t="s">
+        <v>71</v>
+      </c>
       <c r="E80" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F80" s="94" t="s">
+      <c r="F80" s="92" t="s">
         <v>100</v>
       </c>
       <c r="G80" s="36">
@@ -4101,7 +4285,7 @@
       <c r="E86" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F86" s="86" t="s">
+      <c r="F86" s="84" t="s">
         <v>118</v>
       </c>
       <c r="G86" s="15"/>
@@ -4153,7 +4337,7 @@
       <c r="E87" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F87" s="89" t="s">
+      <c r="F87" s="87" t="s">
         <v>96</v>
       </c>
       <c r="G87" s="5"/>
@@ -4187,7 +4371,7 @@
       <c r="E88" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="89" t="s">
+      <c r="F88" s="87" t="s">
         <v>94</v>
       </c>
       <c r="G88" s="5"/>
@@ -4206,14 +4390,22 @@
       <c r="T88" s="41"/>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" s="34"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="A89" s="34">
+        <v>7</v>
+      </c>
+      <c r="B89" s="127">
+        <v>2</v>
+      </c>
+      <c r="C89" s="30">
+        <v>1</v>
+      </c>
+      <c r="D89" s="126" t="s">
+        <v>71</v>
+      </c>
       <c r="E89" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="89" t="s">
+      <c r="F89" s="87" t="s">
         <v>98</v>
       </c>
       <c r="G89" s="5"/>
@@ -4232,14 +4424,22 @@
       <c r="T89" s="41"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="A90" s="31">
+        <v>8</v>
+      </c>
+      <c r="B90" s="124">
+        <v>2</v>
+      </c>
+      <c r="C90" s="32">
+        <v>1</v>
+      </c>
+      <c r="D90" s="95" t="s">
+        <v>71</v>
+      </c>
       <c r="E90" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F90" s="94" t="s">
+      <c r="F90" s="92" t="s">
         <v>101</v>
       </c>
       <c r="G90" s="36">
